--- a/Data/故宫道路标记.xlsx
+++ b/Data/故宫道路标记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="25600" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,21 +27,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>边（道路）</t>
   </si>
   <si>
-    <t>起始点</t>
+    <t>fromID</t>
   </si>
   <si>
-    <t>终点</t>
+    <t>toID</t>
   </si>
   <si>
-    <t>类型</t>
+    <t>distance</t>
   </si>
   <si>
-    <t>长度</t>
+    <t>congestion</t>
+  </si>
+  <si>
+    <t>speed</t>
   </si>
 </sst>
 </file>
@@ -1189,18 +1192,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J118" sqref="J118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.4545454545455" customWidth="1"/>
+    <col min="5" max="5" width="11.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1213,11 +1217,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1227,8 +1234,17 @@
       <c r="C2">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>0.4</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1238,8 +1254,17 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>87</v>
+      </c>
+      <c r="E3">
+        <v>0.7</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1249,8 +1274,17 @@
       <c r="C4">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>199</v>
+      </c>
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+      <c r="F4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1260,8 +1294,17 @@
       <c r="C5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>245</v>
+      </c>
+      <c r="E5">
+        <v>0.9</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1271,8 +1314,17 @@
       <c r="C6">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>346</v>
+      </c>
+      <c r="E6">
+        <v>0.3</v>
+      </c>
+      <c r="F6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1282,8 +1334,17 @@
       <c r="C7">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>432</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1293,8 +1354,17 @@
       <c r="C8">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>561</v>
+      </c>
+      <c r="E8">
+        <v>0.1</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1304,8 +1374,17 @@
       <c r="C9">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>600</v>
+      </c>
+      <c r="E9">
+        <v>0.6</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1315,8 +1394,17 @@
       <c r="C10">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>0.8</v>
+      </c>
+      <c r="F10">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1326,8 +1414,17 @@
       <c r="C11">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>179</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1337,8 +1434,17 @@
       <c r="C12">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>201</v>
+      </c>
+      <c r="E12">
+        <v>0.4</v>
+      </c>
+      <c r="F12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1348,8 +1454,17 @@
       <c r="C13">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>321</v>
+      </c>
+      <c r="E13">
+        <v>0.7</v>
+      </c>
+      <c r="F13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1359,8 +1474,17 @@
       <c r="C14">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>490</v>
+      </c>
+      <c r="E14">
+        <v>0.2</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1370,8 +1494,17 @@
       <c r="C15">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>500</v>
+      </c>
+      <c r="E15">
+        <v>0.9</v>
+      </c>
+      <c r="F15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1381,8 +1514,17 @@
       <c r="C16">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>97</v>
+      </c>
+      <c r="E16">
+        <v>0.3</v>
+      </c>
+      <c r="F16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1392,8 +1534,17 @@
       <c r="C17">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>123</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1403,8 +1554,17 @@
       <c r="C18">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>389</v>
+      </c>
+      <c r="E18">
+        <v>0.1</v>
+      </c>
+      <c r="F18">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1414,8 +1574,17 @@
       <c r="C19">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>456</v>
+      </c>
+      <c r="E19">
+        <v>0.6</v>
+      </c>
+      <c r="F19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1425,8 +1594,17 @@
       <c r="C20">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>567</v>
+      </c>
+      <c r="E20">
+        <v>0.8</v>
+      </c>
+      <c r="F20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1436,8 +1614,17 @@
       <c r="C21">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>89</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1447,8 +1634,17 @@
       <c r="C22">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>90</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1458,8 +1654,17 @@
       <c r="C23">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>200</v>
+      </c>
+      <c r="E23">
+        <v>0.9</v>
+      </c>
+      <c r="F23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1469,8 +1674,17 @@
       <c r="C24">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>300</v>
+      </c>
+      <c r="E24">
+        <v>0.3</v>
+      </c>
+      <c r="F24">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1480,8 +1694,17 @@
       <c r="C25">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>400</v>
+      </c>
+      <c r="E25">
+        <v>0.7</v>
+      </c>
+      <c r="F25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1491,8 +1714,17 @@
       <c r="C26">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <v>500</v>
+      </c>
+      <c r="E26">
+        <v>0.1</v>
+      </c>
+      <c r="F26">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1502,8 +1734,17 @@
       <c r="C27">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>600</v>
+      </c>
+      <c r="E27">
+        <v>0.4</v>
+      </c>
+      <c r="F27">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1513,8 +1754,17 @@
       <c r="C28">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <v>55</v>
+      </c>
+      <c r="E28">
+        <v>0.6</v>
+      </c>
+      <c r="F28">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1524,8 +1774,17 @@
       <c r="C29">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <v>99</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1535,8 +1794,17 @@
       <c r="C30">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <v>150</v>
+      </c>
+      <c r="E30">
+        <v>0.2</v>
+      </c>
+      <c r="F30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1546,8 +1814,17 @@
       <c r="C31">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <v>250</v>
+      </c>
+      <c r="E31">
+        <v>0.8</v>
+      </c>
+      <c r="F31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1557,8 +1834,17 @@
       <c r="C32">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <v>350</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+      <c r="F32">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1568,8 +1854,17 @@
       <c r="C33">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <v>450</v>
+      </c>
+      <c r="E33">
+        <v>0.9</v>
+      </c>
+      <c r="F33">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1579,8 +1874,17 @@
       <c r="C34">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <v>550</v>
+      </c>
+      <c r="E34">
+        <v>0.3</v>
+      </c>
+      <c r="F34">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1590,8 +1894,17 @@
       <c r="C35">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <v>51</v>
+      </c>
+      <c r="E35">
+        <v>0.7</v>
+      </c>
+      <c r="F35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1601,8 +1914,17 @@
       <c r="C36">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36">
+        <v>101</v>
+      </c>
+      <c r="E36">
+        <v>0.1</v>
+      </c>
+      <c r="F36">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1612,8 +1934,17 @@
       <c r="C37">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>151</v>
+      </c>
+      <c r="E37">
+        <v>0.4</v>
+      </c>
+      <c r="F37">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1623,8 +1954,17 @@
       <c r="C38">
         <v>69</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>251</v>
+      </c>
+      <c r="E38">
+        <v>0.6</v>
+      </c>
+      <c r="F38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1634,8 +1974,17 @@
       <c r="C39">
         <v>70</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <v>351</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1645,8 +1994,17 @@
       <c r="C40">
         <v>69</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <v>451</v>
+      </c>
+      <c r="E40">
+        <v>0.2</v>
+      </c>
+      <c r="F40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1656,8 +2014,17 @@
       <c r="C41">
         <v>70</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41">
+        <v>551</v>
+      </c>
+      <c r="E41">
+        <v>0.8</v>
+      </c>
+      <c r="F41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1667,8 +2034,17 @@
       <c r="C42">
         <v>30</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>601</v>
+      </c>
+      <c r="E42">
+        <v>0.5</v>
+      </c>
+      <c r="F42">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1678,8 +2054,17 @@
       <c r="C43">
         <v>67</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43">
+        <v>49</v>
+      </c>
+      <c r="E43">
+        <v>0.9</v>
+      </c>
+      <c r="F43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1689,8 +2074,17 @@
       <c r="C44">
         <v>68</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44">
+        <v>99</v>
+      </c>
+      <c r="E44">
+        <v>0.3</v>
+      </c>
+      <c r="F44">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1700,8 +2094,17 @@
       <c r="C45">
         <v>68</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>149</v>
+      </c>
+      <c r="E45">
+        <v>0.7</v>
+      </c>
+      <c r="F45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1711,8 +2114,17 @@
       <c r="C46">
         <v>30</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46">
+        <v>199</v>
+      </c>
+      <c r="E46">
+        <v>0.1</v>
+      </c>
+      <c r="F46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1722,8 +2134,17 @@
       <c r="C47">
         <v>31</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47">
+        <v>249</v>
+      </c>
+      <c r="E47">
+        <v>0.4</v>
+      </c>
+      <c r="F47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1733,8 +2154,17 @@
       <c r="C48">
         <v>31</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48">
+        <v>349</v>
+      </c>
+      <c r="E48">
+        <v>0.6</v>
+      </c>
+      <c r="F48">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1744,8 +2174,17 @@
       <c r="C49">
         <v>31</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49">
+        <v>449</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1755,8 +2194,17 @@
       <c r="C50">
         <v>32</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50">
+        <v>599</v>
+      </c>
+      <c r="E50">
+        <v>0.2</v>
+      </c>
+      <c r="F50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1766,8 +2214,17 @@
       <c r="C51">
         <v>33</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>52</v>
+      </c>
+      <c r="E51">
+        <v>0.8</v>
+      </c>
+      <c r="F51">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1777,8 +2234,17 @@
       <c r="C52">
         <v>34</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>102</v>
+      </c>
+      <c r="E52">
+        <v>0.5</v>
+      </c>
+      <c r="F52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1788,8 +2254,17 @@
       <c r="C53">
         <v>35</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53">
+        <v>152</v>
+      </c>
+      <c r="E53">
+        <v>0.7</v>
+      </c>
+      <c r="F53">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1799,8 +2274,17 @@
       <c r="C54">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54">
+        <v>202</v>
+      </c>
+      <c r="E54">
+        <v>0.1</v>
+      </c>
+      <c r="F54">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1810,8 +2294,17 @@
       <c r="C55">
         <v>72</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55">
+        <v>302</v>
+      </c>
+      <c r="E55">
+        <v>0.4</v>
+      </c>
+      <c r="F55">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1821,8 +2314,17 @@
       <c r="C56">
         <v>34</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56">
+        <v>402</v>
+      </c>
+      <c r="E56">
+        <v>0.6</v>
+      </c>
+      <c r="F56">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1832,8 +2334,17 @@
       <c r="C57">
         <v>35</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>502</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1843,8 +2354,17 @@
       <c r="C58">
         <v>32</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58">
+        <v>602</v>
+      </c>
+      <c r="E58">
+        <v>0.2</v>
+      </c>
+      <c r="F58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1854,8 +2374,17 @@
       <c r="C59">
         <v>42</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59">
+        <v>53</v>
+      </c>
+      <c r="E59">
+        <v>0.9</v>
+      </c>
+      <c r="F59">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1865,8 +2394,17 @@
       <c r="C60">
         <v>49</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60">
+        <v>103</v>
+      </c>
+      <c r="E60">
+        <v>0.3</v>
+      </c>
+      <c r="F60">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1876,8 +2414,17 @@
       <c r="C61">
         <v>48</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61">
+        <v>153</v>
+      </c>
+      <c r="E61">
+        <v>0.8</v>
+      </c>
+      <c r="F61">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1887,8 +2434,17 @@
       <c r="C62">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62">
+        <v>203</v>
+      </c>
+      <c r="E62">
+        <v>0.5</v>
+      </c>
+      <c r="F62">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1898,8 +2454,17 @@
       <c r="C63">
         <v>22</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63">
+        <v>303</v>
+      </c>
+      <c r="E63">
+        <v>0.7</v>
+      </c>
+      <c r="F63">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1909,8 +2474,17 @@
       <c r="C64">
         <v>23</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64">
+        <v>403</v>
+      </c>
+      <c r="E64">
+        <v>0.1</v>
+      </c>
+      <c r="F64">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1920,8 +2494,17 @@
       <c r="C65">
         <v>22</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65">
+        <v>503</v>
+      </c>
+      <c r="E65">
+        <v>0.4</v>
+      </c>
+      <c r="F65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1931,8 +2514,17 @@
       <c r="C66">
         <v>23</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66">
+        <v>603</v>
+      </c>
+      <c r="E66">
+        <v>0.6</v>
+      </c>
+      <c r="F66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1942,8 +2534,17 @@
       <c r="C67">
         <v>35</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67">
+        <v>54</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1953,8 +2554,17 @@
       <c r="C68">
         <v>13</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68">
+        <v>104</v>
+      </c>
+      <c r="E68">
+        <v>0.2</v>
+      </c>
+      <c r="F68">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1964,8 +2574,17 @@
       <c r="C69">
         <v>62</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69">
+        <v>154</v>
+      </c>
+      <c r="E69">
+        <v>0.9</v>
+      </c>
+      <c r="F69">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1975,8 +2594,17 @@
       <c r="C70">
         <v>62</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70">
+        <v>204</v>
+      </c>
+      <c r="E70">
+        <v>0.3</v>
+      </c>
+      <c r="F70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1986,8 +2614,17 @@
       <c r="C71">
         <v>61</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71">
+        <v>304</v>
+      </c>
+      <c r="E71">
+        <v>0.8</v>
+      </c>
+      <c r="F71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1997,8 +2634,17 @@
       <c r="C72">
         <v>68</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72">
+        <v>404</v>
+      </c>
+      <c r="E72">
+        <v>0.4</v>
+      </c>
+      <c r="F72">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2008,8 +2654,17 @@
       <c r="C73">
         <v>17</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73">
+        <v>504</v>
+      </c>
+      <c r="E73">
+        <v>0.7</v>
+      </c>
+      <c r="F73">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2019,8 +2674,17 @@
       <c r="C74">
         <v>55</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74">
+        <v>604</v>
+      </c>
+      <c r="E74">
+        <v>0.2</v>
+      </c>
+      <c r="F74">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2030,8 +2694,17 @@
       <c r="C75">
         <v>57</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75">
+        <v>70</v>
+      </c>
+      <c r="E75">
+        <v>0.9</v>
+      </c>
+      <c r="F75">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2041,8 +2714,17 @@
       <c r="C76">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>120</v>
+      </c>
+      <c r="E76">
+        <v>0.3</v>
+      </c>
+      <c r="F76">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2052,8 +2734,17 @@
       <c r="C77">
         <v>14</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77">
+        <v>180</v>
+      </c>
+      <c r="E77">
+        <v>0.5</v>
+      </c>
+      <c r="F77">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2063,8 +2754,17 @@
       <c r="C78">
         <v>18</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78">
+        <v>240</v>
+      </c>
+      <c r="E78">
+        <v>0.1</v>
+      </c>
+      <c r="F78">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2074,8 +2774,17 @@
       <c r="C79">
         <v>61</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79">
+        <v>300</v>
+      </c>
+      <c r="E79">
+        <v>0.6</v>
+      </c>
+      <c r="F79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2085,8 +2794,17 @@
       <c r="C80">
         <v>73</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80">
+        <v>360</v>
+      </c>
+      <c r="E80">
+        <v>0.8</v>
+      </c>
+      <c r="F80">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2096,8 +2814,17 @@
       <c r="C81">
         <v>65</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81">
+        <v>420</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2107,8 +2834,17 @@
       <c r="C82">
         <v>64</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82">
+        <v>480</v>
+      </c>
+      <c r="E82">
+        <v>0.4</v>
+      </c>
+      <c r="F82">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2118,8 +2854,17 @@
       <c r="C83">
         <v>65</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83">
+        <v>540</v>
+      </c>
+      <c r="E83">
+        <v>0.7</v>
+      </c>
+      <c r="F83">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2129,8 +2874,17 @@
       <c r="C84">
         <v>64</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84">
+        <v>600</v>
+      </c>
+      <c r="E84">
+        <v>0.2</v>
+      </c>
+      <c r="F84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2140,8 +2894,17 @@
       <c r="C85">
         <v>63</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85">
+        <v>65</v>
+      </c>
+      <c r="E85">
+        <v>0.9</v>
+      </c>
+      <c r="F85">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2151,8 +2914,17 @@
       <c r="C86">
         <v>66</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86">
+        <v>115</v>
+      </c>
+      <c r="E86">
+        <v>0.3</v>
+      </c>
+      <c r="F86">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>85</v>
       </c>
@@ -2162,8 +2934,17 @@
       <c r="C87">
         <v>66</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87">
+        <v>165</v>
+      </c>
+      <c r="E87">
+        <v>0.5</v>
+      </c>
+      <c r="F87">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>86</v>
       </c>
@@ -2173,8 +2954,17 @@
       <c r="C88">
         <v>59</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88">
+        <v>215</v>
+      </c>
+      <c r="E88">
+        <v>0.1</v>
+      </c>
+      <c r="F88">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>87</v>
       </c>
@@ -2184,8 +2974,17 @@
       <c r="C89">
         <v>58</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89">
+        <v>265</v>
+      </c>
+      <c r="E89">
+        <v>0.6</v>
+      </c>
+      <c r="F89">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2195,8 +2994,17 @@
       <c r="C90">
         <v>59</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90">
+        <v>315</v>
+      </c>
+      <c r="E90">
+        <v>0.8</v>
+      </c>
+      <c r="F90">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>89</v>
       </c>
@@ -2206,8 +3014,17 @@
       <c r="C91">
         <v>58</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91">
+        <v>365</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>90</v>
       </c>
@@ -2217,8 +3034,17 @@
       <c r="C92">
         <v>51</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92">
+        <v>415</v>
+      </c>
+      <c r="E92">
+        <v>0.5</v>
+      </c>
+      <c r="F92">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>91</v>
       </c>
@@ -2228,8 +3054,17 @@
       <c r="C93">
         <v>52</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93">
+        <v>465</v>
+      </c>
+      <c r="E93">
+        <v>0.9</v>
+      </c>
+      <c r="F93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>92</v>
       </c>
@@ -2239,8 +3074,17 @@
       <c r="C94">
         <v>52</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94">
+        <v>515</v>
+      </c>
+      <c r="E94">
+        <v>0.3</v>
+      </c>
+      <c r="F94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>93</v>
       </c>
@@ -2250,8 +3094,17 @@
       <c r="C95">
         <v>54</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95">
+        <v>61</v>
+      </c>
+      <c r="E95">
+        <v>0.7</v>
+      </c>
+      <c r="F95">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>94</v>
       </c>
@@ -2261,8 +3114,17 @@
       <c r="C96">
         <v>53</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>111</v>
+      </c>
+      <c r="E96">
+        <v>0.1</v>
+      </c>
+      <c r="F96">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>95</v>
       </c>
@@ -2272,8 +3134,17 @@
       <c r="C97">
         <v>53</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97">
+        <v>161</v>
+      </c>
+      <c r="E97">
+        <v>0.4</v>
+      </c>
+      <c r="F97">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>96</v>
       </c>
@@ -2283,8 +3154,17 @@
       <c r="C98">
         <v>53</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98">
+        <v>211</v>
+      </c>
+      <c r="E98">
+        <v>0.6</v>
+      </c>
+      <c r="F98">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>97</v>
       </c>
@@ -2294,8 +3174,17 @@
       <c r="C99">
         <v>52</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99">
+        <v>261</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>98</v>
       </c>
@@ -2305,8 +3194,17 @@
       <c r="C100">
         <v>54</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>311</v>
+      </c>
+      <c r="E100">
+        <v>0.2</v>
+      </c>
+      <c r="F100">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>99</v>
       </c>
@@ -2316,8 +3214,17 @@
       <c r="C101">
         <v>55</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101">
+        <v>361</v>
+      </c>
+      <c r="E101">
+        <v>0.8</v>
+      </c>
+      <c r="F101">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>100</v>
       </c>
@@ -2327,8 +3234,17 @@
       <c r="C102">
         <v>56</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>411</v>
+      </c>
+      <c r="E102">
+        <v>0.5</v>
+      </c>
+      <c r="F102">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>101</v>
       </c>
@@ -2338,8 +3254,17 @@
       <c r="C103">
         <v>50</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>461</v>
+      </c>
+      <c r="E103">
+        <v>0.9</v>
+      </c>
+      <c r="F103">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>102</v>
       </c>
@@ -2349,8 +3274,17 @@
       <c r="C104">
         <v>51</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104">
+        <v>511</v>
+      </c>
+      <c r="E104">
+        <v>0.3</v>
+      </c>
+      <c r="F104">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>103</v>
       </c>
@@ -2360,8 +3294,17 @@
       <c r="C105">
         <v>50</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105">
+        <v>56</v>
+      </c>
+      <c r="E105">
+        <v>0.7</v>
+      </c>
+      <c r="F105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>104</v>
       </c>
@@ -2371,8 +3314,17 @@
       <c r="C106">
         <v>38</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106">
+        <v>106</v>
+      </c>
+      <c r="E106">
+        <v>0.1</v>
+      </c>
+      <c r="F106">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>105</v>
       </c>
@@ -2382,8 +3334,17 @@
       <c r="C107">
         <v>34</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107">
+        <v>156</v>
+      </c>
+      <c r="E107">
+        <v>0.4</v>
+      </c>
+      <c r="F107">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>106</v>
       </c>
@@ -2393,8 +3354,17 @@
       <c r="C108">
         <v>35</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108">
+        <v>206</v>
+      </c>
+      <c r="E108">
+        <v>0.6</v>
+      </c>
+      <c r="F108">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>107</v>
       </c>
@@ -2404,8 +3374,17 @@
       <c r="C109">
         <v>47</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109">
+        <v>256</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>108</v>
       </c>
@@ -2414,6 +3393,15 @@
       </c>
       <c r="C110">
         <v>45</v>
+      </c>
+      <c r="D110">
+        <v>306</v>
+      </c>
+      <c r="E110">
+        <v>0.2</v>
+      </c>
+      <c r="F110">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
